--- a/tests/resources/sample.xlsx
+++ b/tests/resources/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helen.lin\Repos\aind-data-transfer-service\tests\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon.young\Projects\aind-data-transfer-service\tests\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{179EA319-8798-4929-B2F8-D71DEFC62311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB51CD1A-276E-4980-819C-86C312363056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="28800" windowHeight="15460" xr2:uid="{AA28843C-0C44-40D4-94B1-621D339D4046}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{AA28843C-0C44-40D4-94B1-621D339D4046}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>modality0</t>
   </si>
@@ -92,9 +92,6 @@
     <t xml:space="preserve"> dir/data_set_3</t>
   </si>
   <si>
-    <t xml:space="preserve"> some_bucket2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> BEHAVIOR</t>
   </si>
   <si>
@@ -102,6 +99,12 @@
   </si>
   <si>
     <t xml:space="preserve"> BEHAVIOR_VIDEOS</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>scratch</t>
   </si>
 </sst>
 </file>
@@ -456,12 +459,12 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -510,7 +513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -524,19 +527,19 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>123456</v>
       </c>
       <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -544,22 +547,22 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>123456</v>
       </c>
       <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/tests/resources/sample.xlsx
+++ b/tests/resources/sample.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
-  <si>
-    <t xml:space="preserve">processor_full_name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t xml:space="preserve">project_name</t>
   </si>
@@ -55,9 +52,6 @@
     <t xml:space="preserve"> acq-datetime</t>
   </si>
   <si>
-    <t xml:space="preserve">Anna Apple</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ephys Platform</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 2020-10-10 14:10:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Smith</t>
   </si>
   <si>
     <t xml:space="preserve">Behavior Platform</t>
@@ -214,143 +205,134 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="H2" s="1" t="n">
+        <v>123454</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>123454</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="H3" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="J3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
